--- a/college-list.xlsx
+++ b/college-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wcoop\Documents\GitHub\CFB-247-Rvest-Scrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B402662-8292-4AF3-990C-5266AC896E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB74EF6-6D07-4125-8D69-F94D21AE8DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -428,6 +428,12 @@
   </si>
   <si>
     <t>SEC</t>
+  </si>
+  <si>
+    <t>duke</t>
+  </si>
+  <si>
+    <t>Duke</t>
   </si>
 </sst>
 </file>
@@ -779,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,21 +960,21 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>132</v>
@@ -976,10 +982,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>132</v>
@@ -987,10 +993,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>132</v>
@@ -998,10 +1004,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>132</v>
@@ -1009,10 +1015,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
         <v>132</v>
@@ -1020,10 +1026,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
         <v>132</v>
@@ -1031,10 +1037,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
         <v>132</v>
@@ -1042,10 +1048,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
         <v>132</v>
@@ -1053,10 +1059,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
         <v>132</v>
@@ -1064,10 +1070,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
         <v>132</v>
@@ -1075,10 +1081,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
         <v>132</v>
@@ -1086,10 +1092,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
         <v>132</v>
@@ -1097,10 +1103,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
         <v>132</v>
@@ -1108,21 +1114,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
         <v>133</v>
@@ -1130,10 +1136,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
         <v>133</v>
@@ -1141,10 +1147,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
         <v>133</v>
@@ -1152,10 +1158,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
         <v>133</v>
@@ -1163,10 +1169,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
         <v>133</v>
@@ -1174,10 +1180,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
         <v>133</v>
@@ -1185,10 +1191,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
         <v>133</v>
@@ -1196,10 +1202,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
         <v>133</v>
@@ -1207,10 +1213,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
         <v>133</v>
@@ -1218,21 +1224,21 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
         <v>134</v>
@@ -1240,10 +1246,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
         <v>134</v>
@@ -1251,10 +1257,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
         <v>134</v>
@@ -1262,10 +1268,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
         <v>134</v>
@@ -1273,10 +1279,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
         <v>134</v>
@@ -1284,10 +1290,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
         <v>134</v>
@@ -1295,10 +1301,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
         <v>134</v>
@@ -1306,10 +1312,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
         <v>134</v>
@@ -1317,10 +1323,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
         <v>134</v>
@@ -1328,10 +1334,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
         <v>134</v>
@@ -1339,10 +1345,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
         <v>134</v>
@@ -1350,21 +1356,21 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
         <v>135</v>
@@ -1372,10 +1378,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
         <v>135</v>
@@ -1383,10 +1389,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
         <v>135</v>
@@ -1394,10 +1400,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
         <v>135</v>
@@ -1405,10 +1411,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
         <v>135</v>
@@ -1416,10 +1422,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
         <v>135</v>
@@ -1427,10 +1433,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
         <v>135</v>
@@ -1438,10 +1444,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
         <v>135</v>
@@ -1449,10 +1455,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
         <v>135</v>
@@ -1460,10 +1466,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
         <v>135</v>
@@ -1471,10 +1477,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
         <v>135</v>
@@ -1482,10 +1488,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
         <v>135</v>
@@ -1493,12 +1499,23 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>66</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>130</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>135</v>
       </c>
     </row>
